--- a/ResultadoEleicoesDistritos/LEIRIA_PENICHE.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_PENICHE.xlsx
@@ -597,64 +597,64 @@
         <v>7280</v>
       </c>
       <c r="H2" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I2" t="n">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="J2" t="n">
-        <v>3043</v>
+        <v>3006</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>787</v>
+        <v>839</v>
       </c>
       <c r="M2" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
-        <v>548</v>
+        <v>494</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>333</v>
+      </c>
+      <c r="T2" t="n">
+        <v>491</v>
+      </c>
+      <c r="U2" t="n">
+        <v>40</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4627</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4740</v>
+      </c>
+      <c r="Y2" t="n">
         <v>6</v>
       </c>
-      <c r="R2" t="n">
-        <v>46</v>
-      </c>
-      <c r="S2" t="n">
-        <v>340</v>
-      </c>
-      <c r="T2" t="n">
-        <v>507</v>
-      </c>
-      <c r="U2" t="n">
-        <v>35</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4722</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4593</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
